--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB211.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB211.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601CD455-EBEE-4AE7-8E5F-7898BC32863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EEF78E-061A-4BC9-862D-5F0330AA59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="暫存檔 Work_B211" sheetId="10" r:id="rId4"/>
     <sheet name="條件" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$32</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -301,22 +298,10 @@
     <t>交易代碼</t>
   </si>
   <si>
-    <t>A 新增 C 異動 D刪除 ;
-1. 新增資料時填A;
-2. 修改非key值欄位值時填C; 
-3. 刪除原報送資料時填D;
-4. 若為更改Key欄位值，請先以一筆D刪除原報送資料，再以A代碼報送一筆新增(異動後)資料</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>交易屬性</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>A:本筆撥款 B:本筆還款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>交易日期</t>
   </si>
   <si>
@@ -387,19 +372,10 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>個人貸款屬消費性貸款者請填Y，屬於非消費性貸款(如非法人組織貸款)請填N，非屬個人貸款填X</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>FinCode</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>法人特殊融資分為五類 A 專案融資 B 商品融資 C標的融資 D 收益型商用不動產融資 E 高風險商用不動產融資 K 非屬前述特殊融資之其他一般法人金融貸款
-個人(含非法人組織)金融貸款分類為L 購買住宅貸款(非自用) M 購買住宅貸款(自用) N 一般房屋抵押貸款(房屋修繕貸款) O 由信用卡衍生之小額信用貸款 R 由現金卡衍生之小額信用貸款 S 創業貸款 T 所營事業營運周轉金貸款 U 建築用融資貸款 V 代墊投標保證金貸款 W 農業用途貸款 X 參與都市更新更新計畫貸款 Y 企業員工認購股票(或可轉換公司債)貸款 ,Z 其他個人金融貸款 ,1 個人投資理財貸款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>融資業務分類</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -413,10 +389,6 @@
   </si>
   <si>
     <t>用途別</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途別請參照附件五 (1:購置不動產 2:購置動產 3:企業投資 4:週轉金)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -779,6 +751,60 @@
       , CASE WHEN T."Status" = 6 AND NVL(O."BadDebtDate",0) &gt; 0
              THEN TRUNC(O."BadDebtDate" / 100) - 191100
              ELSE 0 END                                  AS "BadDebtDate"  -- 呆帳轉銷年月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除
+1. 新增資料時填A;
+2. 修改非key值欄位值時填C; 
+3. 刪除原報送資料時填D;
+4. 若為更改Key欄位值，請先以一筆D刪除原報送資料，再以A代碼報送一筆新增(異動後)資料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:本筆撥款
+B:本筆還款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:個人貸款屬消費性貸款
+N:非消費性貸款(如非法人組織貸款)
+X:非屬個人貸款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人特殊融資分為五類 
+A:專案融資 
+B:商品融資 
+C:標的融資 
+D:收益型商用不動產融資 
+E:高風險商用不動產融資 
+K:非屬前述特殊融資之其他一般法人金融貸款
+個人(含非法人組織)金融貸款分類為
+L:購買住宅貸款(非自用) 
+M:購買住宅貸款(自用) 
+N:一般房屋抵押貸款(房屋修繕貸款) 
+O:由信用卡衍生之小額信用貸款 
+R:由現金卡衍生之小額信用貸款 
+S:創業貸款 
+T:所營事業營運周轉金貸款 
+U:建築用融資貸款 
+V:代墊投標保證金貸款 
+W:農業用途貸款 
+X:參與都市更新更新計畫貸款 
+Y:企業員工認購股票(或可轉換公司債)貸款
+Z:其他個人金融貸款
+1:個人投資理財貸款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途別請參照附件五
+1:購置不動產
+2:購置動產
+3:企業投資
+4:週轉金</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1100,6 +1126,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1110,27 +1157,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,27 +1178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔 Work_B204"/>
-      <sheetName val="條件"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1510,21 +1515,21 @@
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.88671875" style="17" customWidth="1"/>
-    <col min="8" max="9" width="7" style="30" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" style="35" customWidth="1"/>
+    <col min="8" max="9" width="7" style="26" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" style="31" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="10"/>
@@ -1534,8 +1539,8 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1550,12 +1555,12 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1566,10 +1571,10 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1580,10 +1585,10 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="36"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1593,10 +1598,10 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="36"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1606,10 +1611,10 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="36"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1640,14 +1645,14 @@
       <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="27" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1668,10 +1673,10 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="35" t="s">
-        <v>125</v>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1694,14 +1699,14 @@
       <c r="G10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="H10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="26">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>126</v>
+      <c r="J10" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1724,17 +1729,17 @@
       <c r="G11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="H11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="26">
         <v>2</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="J11" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>4</v>
       </c>
@@ -1752,16 +1757,16 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="30">
+        <v>141</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="26">
         <v>3</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>128</v>
+      <c r="J12" s="31" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
@@ -1784,25 +1789,25 @@
       <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="H13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="26">
         <v>4</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1812,16 +1817,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="30">
+        <v>142</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="26">
         <v>5</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>130</v>
+      <c r="J14" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1829,10 +1834,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>25</v>
@@ -1842,16 +1847,16 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="26">
         <v>6</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>131</v>
+      <c r="J15" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1859,10 +1864,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -1872,16 +1877,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="30">
+        <v>63</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="26">
         <v>7</v>
       </c>
-      <c r="J16" s="35" t="s">
-        <v>132</v>
+      <c r="J16" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1889,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>25</v>
@@ -1902,16 +1907,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>133</v>
+        <v>94</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -1919,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>25</v>
@@ -1932,16 +1937,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="26">
         <v>8</v>
       </c>
-      <c r="J18" s="35" t="s">
-        <v>134</v>
+      <c r="J18" s="31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -1949,10 +1954,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>25</v>
@@ -1962,16 +1967,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="26">
         <v>9</v>
       </c>
-      <c r="J19" s="35" t="s">
-        <v>135</v>
+      <c r="J19" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1979,10 +1984,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
@@ -1992,16 +1997,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="26">
         <v>10</v>
       </c>
-      <c r="J20" s="35" t="s">
-        <v>136</v>
+      <c r="J20" s="31" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2009,10 +2014,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -2022,14 +2027,14 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="30">
+      <c r="H21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="26">
         <v>11</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>137</v>
+      <c r="J21" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -2050,16 +2055,16 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="30">
+        <v>71</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="26">
         <v>12</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>138</v>
+      <c r="J22" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -2080,16 +2085,16 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="30">
+        <v>72</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="26">
         <v>13</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>139</v>
+      <c r="J23" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -2097,10 +2102,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>25</v>
@@ -2110,16 +2115,16 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="30">
+        <v>75</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="26">
         <v>14</v>
       </c>
-      <c r="J24" s="35" t="s">
-        <v>140</v>
+      <c r="J24" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -2127,10 +2132,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2140,27 +2145,27 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="30">
+        <v>143</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="26">
         <v>15</v>
       </c>
-      <c r="J25" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="J25" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
@@ -2170,27 +2175,27 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="30">
+        <v>144</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="26">
         <v>16</v>
       </c>
-      <c r="J26" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+      <c r="J26" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -2200,16 +2205,16 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="30">
+        <v>145</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="26">
         <v>17</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>142</v>
+      <c r="J27" s="32" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2222,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>53</v>
@@ -2232,14 +2237,14 @@
       <c r="G28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="30">
+      <c r="H28" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="26">
         <v>18</v>
       </c>
-      <c r="J28" s="35" t="s">
-        <v>144</v>
+      <c r="J28" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2260,9 +2265,9 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="35"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
@@ -2282,9 +2287,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="35"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
@@ -2304,9 +2309,9 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="35"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -2326,9 +2331,9 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="35"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
@@ -2488,7 +2493,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2507,225 +2512,225 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="142.33203125" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="3" spans="1:1" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="358.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="372.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="14" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="358.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+    <row r="15" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="372.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+    <row r="16" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="29"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="29"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="29"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="29"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="29"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="29"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="29"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="29"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="29"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="29"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="29"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="29"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
+      <c r="A29" s="29"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="29"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
+      <c r="A31" s="29"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="29"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="29"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="29"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
+      <c r="A35" s="29"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
+      <c r="A36" s="29"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
+      <c r="A37" s="29"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
+      <c r="A38" s="29"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
+      <c r="A39" s="29"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
+      <c r="A40" s="29"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
+      <c r="A41" s="29"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
+      <c r="A42" s="29"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
+      <c r="A43" s="29"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
+      <c r="A44" s="29"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
+      <c r="A45" s="29"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
+      <c r="A46" s="29"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
+      <c r="A47" s="29"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
+      <c r="A48" s="29"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
+      <c r="A49" s="29"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
+      <c r="A50" s="29"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
+      <c r="A51" s="29"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
+      <c r="A52" s="29"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
+      <c r="A53" s="29"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
+      <c r="A54" s="29"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
+      <c r="A55" s="29"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
+      <c r="A56" s="29"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
+      <c r="A57" s="29"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33"/>
+      <c r="A58" s="29"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
+      <c r="A59" s="29"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
+      <c r="A60" s="29"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
+      <c r="A61" s="29"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
+      <c r="A62" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2743,44 +2748,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="34"/>
+    <col min="1" max="1" width="151.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>123</v>
+      <c r="A1" s="29" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
+      <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="29"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="29"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="29"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="29"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="29"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="29"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="29"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
